--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B6A294-C02D-47C7-A6F3-95857C6C8C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C4D24E-89CB-4686-A485-2D46EF53D89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Consumption" sheetId="1" r:id="rId1"/>
@@ -275,12 +275,6 @@
     <t>Time Period</t>
   </si>
   <si>
-    <t>2006-03:2023-12</t>
-  </si>
-  <si>
-    <t>2009-08:2023-12</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -290,7 +284,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-03-20</t>
+    <t>2006-03:2024-03</t>
+  </si>
+  <si>
+    <t>2009-08:2024-03</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
   </si>
 </sst>
 </file>
@@ -711,9 +711,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF222"/>
+  <dimension ref="A1:AF223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1254,200 +1254,200 @@
         <v>71</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>77</v>
@@ -22317,6 +22317,104 @@
       </c>
       <c r="AF222" s="3">
         <v>388.408995</v>
+      </c>
+    </row>
+    <row r="223" spans="1:32">
+      <c r="A223" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B223" s="3">
+        <v>107</v>
+      </c>
+      <c r="C223" s="3">
+        <v>88</v>
+      </c>
+      <c r="D223" s="3">
+        <v>408</v>
+      </c>
+      <c r="E223" s="3">
+        <v>245</v>
+      </c>
+      <c r="F223" s="3">
+        <v>438</v>
+      </c>
+      <c r="G223" s="3">
+        <v>236</v>
+      </c>
+      <c r="H223" s="3">
+        <v>85</v>
+      </c>
+      <c r="I223" s="3">
+        <v>105</v>
+      </c>
+      <c r="J223" s="3">
+        <v>151</v>
+      </c>
+      <c r="K223" s="3">
+        <v>675</v>
+      </c>
+      <c r="L223" s="3">
+        <v>540</v>
+      </c>
+      <c r="M223" s="3">
+        <v>275</v>
+      </c>
+      <c r="N223" s="3">
+        <v>261</v>
+      </c>
+      <c r="O223" s="3">
+        <v>170</v>
+      </c>
+      <c r="P223" s="3">
+        <v>675</v>
+      </c>
+      <c r="Q223" s="3">
+        <v>332</v>
+      </c>
+      <c r="R223" s="3">
+        <v>221</v>
+      </c>
+      <c r="S223" s="3">
+        <v>189</v>
+      </c>
+      <c r="T223" s="3">
+        <v>719</v>
+      </c>
+      <c r="U223" s="3">
+        <v>204</v>
+      </c>
+      <c r="V223" s="3">
+        <v>40</v>
+      </c>
+      <c r="W223" s="3">
+        <v>116</v>
+      </c>
+      <c r="X223" s="3">
+        <v>306</v>
+      </c>
+      <c r="Y223" s="3">
+        <v>159</v>
+      </c>
+      <c r="Z223" s="3">
+        <v>217</v>
+      </c>
+      <c r="AA223" s="3">
+        <v>13</v>
+      </c>
+      <c r="AB223" s="3">
+        <v>208</v>
+      </c>
+      <c r="AC223" s="3">
+        <v>148</v>
+      </c>
+      <c r="AD223" s="3">
+        <v>95</v>
+      </c>
+      <c r="AE223" s="3">
+        <v>115</v>
+      </c>
+      <c r="AF223" s="3">
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C4D24E-89CB-4686-A485-2D46EF53D89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2016E72D-F755-46ED-B9B9-2263A81CBD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,13 +284,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2024-03</t>
+    <t>2006-03:2024-04</t>
   </si>
   <si>
-    <t>2009-08:2024-03</t>
+    <t>2009-08:2024-04</t>
   </si>
   <si>
-    <t>2024-04-26</t>
+    <t>2024-05-30</t>
   </si>
 </sst>
 </file>
@@ -711,9 +711,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF223"/>
+  <dimension ref="A1:AF224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -22417,6 +22419,104 @@
         <v>358</v>
       </c>
     </row>
+    <row r="224" spans="1:32">
+      <c r="A224" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B224" s="3">
+        <v>87</v>
+      </c>
+      <c r="C224" s="3">
+        <v>77</v>
+      </c>
+      <c r="D224" s="3">
+        <v>372</v>
+      </c>
+      <c r="E224" s="3">
+        <v>222</v>
+      </c>
+      <c r="F224" s="3">
+        <v>407</v>
+      </c>
+      <c r="G224" s="3">
+        <v>205</v>
+      </c>
+      <c r="H224" s="3">
+        <v>71</v>
+      </c>
+      <c r="I224" s="3">
+        <v>95</v>
+      </c>
+      <c r="J224" s="3">
+        <v>132</v>
+      </c>
+      <c r="K224" s="3">
+        <v>620</v>
+      </c>
+      <c r="L224" s="3">
+        <v>509</v>
+      </c>
+      <c r="M224" s="3">
+        <v>253</v>
+      </c>
+      <c r="N224" s="3">
+        <v>259</v>
+      </c>
+      <c r="O224" s="3">
+        <v>160</v>
+      </c>
+      <c r="P224" s="3">
+        <v>632</v>
+      </c>
+      <c r="Q224" s="3">
+        <v>303</v>
+      </c>
+      <c r="R224" s="3">
+        <v>207</v>
+      </c>
+      <c r="S224" s="3">
+        <v>161</v>
+      </c>
+      <c r="T224" s="3">
+        <v>732</v>
+      </c>
+      <c r="U224" s="3">
+        <v>202</v>
+      </c>
+      <c r="V224" s="3">
+        <v>47</v>
+      </c>
+      <c r="W224" s="3">
+        <v>111</v>
+      </c>
+      <c r="X224" s="3">
+        <v>292</v>
+      </c>
+      <c r="Y224" s="3">
+        <v>141</v>
+      </c>
+      <c r="Z224" s="3">
+        <v>211</v>
+      </c>
+      <c r="AA224" s="3">
+        <v>13</v>
+      </c>
+      <c r="AB224" s="3">
+        <v>186</v>
+      </c>
+      <c r="AC224" s="3">
+        <v>136</v>
+      </c>
+      <c r="AD224" s="3">
+        <v>89</v>
+      </c>
+      <c r="AE224" s="3">
+        <v>109</v>
+      </c>
+      <c r="AF224" s="3">
+        <v>331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2016E72D-F755-46ED-B9B9-2263A81CBD40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FEF375-6F75-4353-8B72-F120C0FAB245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Consumption" sheetId="1" r:id="rId1"/>
@@ -284,13 +284,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2024-04</t>
+    <t>2006-03:2024-05</t>
   </si>
   <si>
-    <t>2009-08:2024-04</t>
+    <t>2009-08:2024-05</t>
   </si>
   <si>
-    <t>2024-05-30</t>
+    <t>2024-07-04</t>
   </si>
 </sst>
 </file>
@@ -711,9 +711,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF224"/>
+  <dimension ref="A1:AF225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -22517,6 +22517,104 @@
         <v>331</v>
       </c>
     </row>
+    <row r="225" spans="1:32">
+      <c r="A225" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B225" s="3">
+        <v>96</v>
+      </c>
+      <c r="C225" s="3">
+        <v>80</v>
+      </c>
+      <c r="D225" s="3">
+        <v>384</v>
+      </c>
+      <c r="E225" s="3">
+        <v>231</v>
+      </c>
+      <c r="F225" s="3">
+        <v>427</v>
+      </c>
+      <c r="G225" s="3">
+        <v>210</v>
+      </c>
+      <c r="H225" s="3">
+        <v>71</v>
+      </c>
+      <c r="I225" s="3">
+        <v>92</v>
+      </c>
+      <c r="J225" s="3">
+        <v>138</v>
+      </c>
+      <c r="K225" s="3">
+        <v>651</v>
+      </c>
+      <c r="L225" s="3">
+        <v>525</v>
+      </c>
+      <c r="M225" s="3">
+        <v>277</v>
+      </c>
+      <c r="N225" s="3">
+        <v>269</v>
+      </c>
+      <c r="O225" s="3">
+        <v>169</v>
+      </c>
+      <c r="P225" s="3">
+        <v>664</v>
+      </c>
+      <c r="Q225" s="3">
+        <v>336</v>
+      </c>
+      <c r="R225" s="3">
+        <v>227</v>
+      </c>
+      <c r="S225" s="3">
+        <v>173</v>
+      </c>
+      <c r="T225" s="3">
+        <v>753</v>
+      </c>
+      <c r="U225" s="3">
+        <v>210</v>
+      </c>
+      <c r="V225" s="3">
+        <v>46</v>
+      </c>
+      <c r="W225" s="3">
+        <v>122</v>
+      </c>
+      <c r="X225" s="3">
+        <v>325</v>
+      </c>
+      <c r="Y225" s="3">
+        <v>147</v>
+      </c>
+      <c r="Z225" s="3">
+        <v>227</v>
+      </c>
+      <c r="AA225" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB225" s="3">
+        <v>199</v>
+      </c>
+      <c r="AC225" s="3">
+        <v>143</v>
+      </c>
+      <c r="AD225" s="3">
+        <v>90</v>
+      </c>
+      <c r="AE225" s="3">
+        <v>114</v>
+      </c>
+      <c r="AF225" s="3">
+        <v>344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FEF375-6F75-4353-8B72-F120C0FAB245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F81E9A-41BE-4939-95A0-B920E43478B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Consumption" sheetId="1" r:id="rId1"/>
@@ -284,13 +284,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2024-05</t>
+    <t>2006-03:2024-06</t>
   </si>
   <si>
-    <t>2009-08:2024-05</t>
+    <t>2009-08:2024-06</t>
   </si>
   <si>
-    <t>2024-07-04</t>
+    <t>2024-07-31</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF225"/>
+  <dimension ref="A1:AF226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -22615,6 +22615,104 @@
         <v>344</v>
       </c>
     </row>
+    <row r="226" spans="1:32">
+      <c r="A226" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B226" s="3">
+        <v>119</v>
+      </c>
+      <c r="C226" s="3">
+        <v>93</v>
+      </c>
+      <c r="D226" s="3">
+        <v>430</v>
+      </c>
+      <c r="E226" s="3">
+        <v>240</v>
+      </c>
+      <c r="F226" s="3">
+        <v>424</v>
+      </c>
+      <c r="G226" s="3">
+        <v>213</v>
+      </c>
+      <c r="H226" s="3">
+        <v>69</v>
+      </c>
+      <c r="I226" s="3">
+        <v>88</v>
+      </c>
+      <c r="J226" s="3">
+        <v>150</v>
+      </c>
+      <c r="K226" s="3">
+        <v>688</v>
+      </c>
+      <c r="L226" s="3">
+        <v>539</v>
+      </c>
+      <c r="M226" s="3">
+        <v>301</v>
+      </c>
+      <c r="N226" s="3">
+        <v>292</v>
+      </c>
+      <c r="O226" s="3">
+        <v>174</v>
+      </c>
+      <c r="P226" s="3">
+        <v>710</v>
+      </c>
+      <c r="Q226" s="3">
+        <v>396</v>
+      </c>
+      <c r="R226" s="3">
+        <v>241</v>
+      </c>
+      <c r="S226" s="3">
+        <v>182</v>
+      </c>
+      <c r="T226" s="3">
+        <v>833</v>
+      </c>
+      <c r="U226" s="3">
+        <v>217</v>
+      </c>
+      <c r="V226" s="3">
+        <v>48</v>
+      </c>
+      <c r="W226" s="3">
+        <v>124</v>
+      </c>
+      <c r="X226" s="3">
+        <v>332</v>
+      </c>
+      <c r="Y226" s="3">
+        <v>150</v>
+      </c>
+      <c r="Z226" s="3">
+        <v>236</v>
+      </c>
+      <c r="AA226" s="3">
+        <v>11</v>
+      </c>
+      <c r="AB226" s="3">
+        <v>217</v>
+      </c>
+      <c r="AC226" s="3">
+        <v>142</v>
+      </c>
+      <c r="AD226" s="3">
+        <v>83</v>
+      </c>
+      <c r="AE226" s="3">
+        <v>115</v>
+      </c>
+      <c r="AF226" s="3">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F81E9A-41BE-4939-95A0-B920E43478B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B797F97-66AA-4F8F-BA5E-B575925945DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,13 +284,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2024-06</t>
+    <t>2006-03:2024-07</t>
   </si>
   <si>
-    <t>2009-08:2024-06</t>
+    <t>2009-08:2024-07</t>
   </si>
   <si>
-    <t>2024-07-31</t>
+    <t>2024-08-30</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF226"/>
+  <dimension ref="A1:AF227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -22713,6 +22713,104 @@
         <v>346</v>
       </c>
     </row>
+    <row r="227" spans="1:32">
+      <c r="A227" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B227" s="3">
+        <v>138</v>
+      </c>
+      <c r="C227" s="3">
+        <v>103</v>
+      </c>
+      <c r="D227" s="3">
+        <v>451</v>
+      </c>
+      <c r="E227" s="3">
+        <v>254</v>
+      </c>
+      <c r="F227" s="3">
+        <v>448</v>
+      </c>
+      <c r="G227" s="3">
+        <v>231</v>
+      </c>
+      <c r="H227" s="3">
+        <v>76</v>
+      </c>
+      <c r="I227" s="3">
+        <v>98</v>
+      </c>
+      <c r="J227" s="3">
+        <v>219</v>
+      </c>
+      <c r="K227" s="3">
+        <v>860</v>
+      </c>
+      <c r="L227" s="3">
+        <v>719</v>
+      </c>
+      <c r="M227" s="3">
+        <v>360</v>
+      </c>
+      <c r="N227" s="3">
+        <v>342</v>
+      </c>
+      <c r="O227" s="3">
+        <v>226</v>
+      </c>
+      <c r="P227" s="3">
+        <v>748</v>
+      </c>
+      <c r="Q227" s="3">
+        <v>416</v>
+      </c>
+      <c r="R227" s="3">
+        <v>305</v>
+      </c>
+      <c r="S227" s="3">
+        <v>255</v>
+      </c>
+      <c r="T227" s="3">
+        <v>961</v>
+      </c>
+      <c r="U227" s="3">
+        <v>239</v>
+      </c>
+      <c r="V227" s="3">
+        <v>49</v>
+      </c>
+      <c r="W227" s="3">
+        <v>165</v>
+      </c>
+      <c r="X227" s="3">
+        <v>371</v>
+      </c>
+      <c r="Y227" s="3">
+        <v>163</v>
+      </c>
+      <c r="Z227" s="3">
+        <v>243</v>
+      </c>
+      <c r="AA227" s="3">
+        <v>11</v>
+      </c>
+      <c r="AB227" s="3">
+        <v>230</v>
+      </c>
+      <c r="AC227" s="3">
+        <v>151</v>
+      </c>
+      <c r="AD227" s="3">
+        <v>84</v>
+      </c>
+      <c r="AE227" s="3">
+        <v>120</v>
+      </c>
+      <c r="AF227" s="3">
+        <v>362</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B797F97-66AA-4F8F-BA5E-B575925945DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F2DE7C-BEA4-417C-A5BD-7E7B74C57BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Consumption" sheetId="1" r:id="rId1"/>
@@ -284,13 +284,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2024-07</t>
+    <t>2006-03:2024-08</t>
   </si>
   <si>
-    <t>2009-08:2024-07</t>
+    <t>2009-08:2024-08</t>
   </si>
   <si>
-    <t>2024-08-30</t>
+    <t>2024-09-27</t>
   </si>
 </sst>
 </file>
@@ -711,15 +711,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF227"/>
+  <dimension ref="A1:AF228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -22811,6 +22811,104 @@
         <v>362</v>
       </c>
     </row>
+    <row r="228" spans="1:32">
+      <c r="A228" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B228" s="3">
+        <v>134</v>
+      </c>
+      <c r="C228" s="3">
+        <v>103</v>
+      </c>
+      <c r="D228" s="3">
+        <v>452</v>
+      </c>
+      <c r="E228" s="3">
+        <v>246</v>
+      </c>
+      <c r="F228" s="3">
+        <v>427</v>
+      </c>
+      <c r="G228" s="3">
+        <v>239</v>
+      </c>
+      <c r="H228" s="3">
+        <v>77</v>
+      </c>
+      <c r="I228" s="3">
+        <v>95</v>
+      </c>
+      <c r="J228" s="3">
+        <v>232</v>
+      </c>
+      <c r="K228" s="3">
+        <v>911</v>
+      </c>
+      <c r="L228" s="3">
+        <v>740</v>
+      </c>
+      <c r="M228" s="3">
+        <v>385</v>
+      </c>
+      <c r="N228" s="3">
+        <v>334</v>
+      </c>
+      <c r="O228" s="3">
+        <v>222</v>
+      </c>
+      <c r="P228" s="3">
+        <v>808</v>
+      </c>
+      <c r="Q228" s="3">
+        <v>457</v>
+      </c>
+      <c r="R228" s="3">
+        <v>327</v>
+      </c>
+      <c r="S228" s="3">
+        <v>249</v>
+      </c>
+      <c r="T228" s="3">
+        <v>935</v>
+      </c>
+      <c r="U228" s="3">
+        <v>235</v>
+      </c>
+      <c r="V228" s="3">
+        <v>52</v>
+      </c>
+      <c r="W228" s="3">
+        <v>185</v>
+      </c>
+      <c r="X228" s="3">
+        <v>431</v>
+      </c>
+      <c r="Y228" s="3">
+        <v>167</v>
+      </c>
+      <c r="Z228" s="3">
+        <v>254</v>
+      </c>
+      <c r="AA228" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB228" s="3">
+        <v>245</v>
+      </c>
+      <c r="AC228" s="3">
+        <v>148</v>
+      </c>
+      <c r="AD228" s="3">
+        <v>83</v>
+      </c>
+      <c r="AE228" s="3">
+        <v>113</v>
+      </c>
+      <c r="AF228" s="3">
+        <v>353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F2DE7C-BEA4-417C-A5BD-7E7B74C57BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB9CC3-D002-468A-B62B-8AC059B07A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,10 +348,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -720,9 +720,9 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:32" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:32">

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB9CC3-D002-468A-B62B-8AC059B07A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEC19DE-D462-46DB-82D5-4D7084DB3AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,10 +348,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -720,9 +720,9 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:32" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:32">

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F2DE7C-BEA4-417C-A5BD-7E7B74C57BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EBB659-0D5D-4639-A8C6-DE2E6505A241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EBB659-0D5D-4639-A8C6-DE2E6505A241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1516FB6-7AA1-491B-BAED-BBC6B0B99AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,10 +348,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -720,9 +720,9 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:32" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:32">

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1516FB6-7AA1-491B-BAED-BBC6B0B99AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9749FA90-F713-4692-8C1D-502A3B89B030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,13 +284,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2024-08</t>
+    <t>2006-03:2024-09</t>
   </si>
   <si>
-    <t>2009-08:2024-08</t>
+    <t>2009-08:2024-09</t>
   </si>
   <si>
-    <t>2024-09-27</t>
+    <t>2024-10-28</t>
   </si>
 </sst>
 </file>
@@ -348,10 +348,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -711,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF228"/>
+  <dimension ref="A1:AF229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -720,9 +720,9 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:32" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -22909,6 +22909,104 @@
         <v>353</v>
       </c>
     </row>
+    <row r="229" spans="1:32">
+      <c r="A229" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B229" s="3">
+        <v>100</v>
+      </c>
+      <c r="C229" s="3">
+        <v>84</v>
+      </c>
+      <c r="D229" s="3">
+        <v>375</v>
+      </c>
+      <c r="E229" s="3">
+        <v>226</v>
+      </c>
+      <c r="F229" s="3">
+        <v>402</v>
+      </c>
+      <c r="G229" s="3">
+        <v>207</v>
+      </c>
+      <c r="H229" s="3">
+        <v>66</v>
+      </c>
+      <c r="I229" s="3">
+        <v>88</v>
+      </c>
+      <c r="J229" s="3">
+        <v>190</v>
+      </c>
+      <c r="K229" s="3">
+        <v>765</v>
+      </c>
+      <c r="L229" s="3">
+        <v>637</v>
+      </c>
+      <c r="M229" s="3">
+        <v>318</v>
+      </c>
+      <c r="N229" s="3">
+        <v>310</v>
+      </c>
+      <c r="O229" s="3">
+        <v>206</v>
+      </c>
+      <c r="P229" s="3">
+        <v>683</v>
+      </c>
+      <c r="Q229" s="3">
+        <v>353</v>
+      </c>
+      <c r="R229" s="3">
+        <v>272</v>
+      </c>
+      <c r="S229" s="3">
+        <v>214</v>
+      </c>
+      <c r="T229" s="3">
+        <v>875</v>
+      </c>
+      <c r="U229" s="3">
+        <v>226</v>
+      </c>
+      <c r="V229" s="3">
+        <v>40</v>
+      </c>
+      <c r="W229" s="3">
+        <v>176</v>
+      </c>
+      <c r="X229" s="3">
+        <v>395</v>
+      </c>
+      <c r="Y229" s="3">
+        <v>156</v>
+      </c>
+      <c r="Z229" s="3">
+        <v>248</v>
+      </c>
+      <c r="AA229" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB229" s="3">
+        <v>215</v>
+      </c>
+      <c r="AC229" s="3">
+        <v>132</v>
+      </c>
+      <c r="AD229" s="3">
+        <v>82</v>
+      </c>
+      <c r="AE229" s="3">
+        <v>106</v>
+      </c>
+      <c r="AF229" s="3">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9749FA90-F713-4692-8C1D-502A3B89B030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B13F81-7305-46F0-978F-6AB42C1790F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1485" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Consumption" sheetId="1" r:id="rId1"/>
@@ -717,9 +717,9 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B13F81-7305-46F0-978F-6AB42C1790F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04512D24-8B1B-481B-AF8E-B36F910BCFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1485" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Consumption" sheetId="1" r:id="rId1"/>
@@ -284,13 +284,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2024-09</t>
+    <t>2006-03:2024-10</t>
   </si>
   <si>
-    <t>2009-08:2024-09</t>
+    <t>2009-08:2024-10</t>
   </si>
   <si>
-    <t>2024-10-28</t>
+    <t>2024-11-29</t>
   </si>
 </sst>
 </file>
@@ -711,15 +711,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF229"/>
+  <dimension ref="A1:AF230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -23007,6 +23007,104 @@
         <v>315</v>
       </c>
     </row>
+    <row r="230" spans="1:32">
+      <c r="A230" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B230" s="3">
+        <v>93</v>
+      </c>
+      <c r="C230" s="3">
+        <v>80</v>
+      </c>
+      <c r="D230" s="3">
+        <v>372</v>
+      </c>
+      <c r="E230" s="3">
+        <v>237</v>
+      </c>
+      <c r="F230" s="3">
+        <v>434</v>
+      </c>
+      <c r="G230" s="3">
+        <v>219</v>
+      </c>
+      <c r="H230" s="3">
+        <v>75</v>
+      </c>
+      <c r="I230" s="3">
+        <v>100</v>
+      </c>
+      <c r="J230" s="3">
+        <v>143</v>
+      </c>
+      <c r="K230" s="3">
+        <v>637</v>
+      </c>
+      <c r="L230" s="3">
+        <v>533</v>
+      </c>
+      <c r="M230" s="3">
+        <v>270</v>
+      </c>
+      <c r="N230" s="3">
+        <v>276</v>
+      </c>
+      <c r="O230" s="3">
+        <v>169</v>
+      </c>
+      <c r="P230" s="3">
+        <v>644</v>
+      </c>
+      <c r="Q230" s="3">
+        <v>311</v>
+      </c>
+      <c r="R230" s="3">
+        <v>221</v>
+      </c>
+      <c r="S230" s="3">
+        <v>170</v>
+      </c>
+      <c r="T230" s="3">
+        <v>780</v>
+      </c>
+      <c r="U230" s="3">
+        <v>213</v>
+      </c>
+      <c r="V230" s="3">
+        <v>43</v>
+      </c>
+      <c r="W230" s="3">
+        <v>118</v>
+      </c>
+      <c r="X230" s="3">
+        <v>312</v>
+      </c>
+      <c r="Y230" s="3">
+        <v>149</v>
+      </c>
+      <c r="Z230" s="3">
+        <v>250</v>
+      </c>
+      <c r="AA230" s="3">
+        <v>13</v>
+      </c>
+      <c r="AB230" s="3">
+        <v>199</v>
+      </c>
+      <c r="AC230" s="3">
+        <v>142</v>
+      </c>
+      <c r="AD230" s="3">
+        <v>87</v>
+      </c>
+      <c r="AE230" s="3">
+        <v>114</v>
+      </c>
+      <c r="AF230" s="3">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04512D24-8B1B-481B-AF8E-B36F910BCFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8708F2A-7998-4919-B2D0-7E17EC1C4E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Consumption" sheetId="1" r:id="rId1"/>
@@ -717,9 +717,9 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8708F2A-7998-4919-B2D0-7E17EC1C4E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187E7840-2D41-4AD5-9EC5-0826390076AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Consumption" sheetId="1" r:id="rId1"/>
@@ -284,13 +284,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2024-10</t>
+    <t>2006-03:2024-11</t>
   </si>
   <si>
-    <t>2009-08:2024-10</t>
+    <t>2009-08:2024-11</t>
   </si>
   <si>
-    <t>2024-11-29</t>
+    <t>2025-01-02</t>
   </si>
 </sst>
 </file>
@@ -711,15 +711,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF230"/>
+  <dimension ref="A1:AF231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -23105,6 +23105,104 @@
         <v>337</v>
       </c>
     </row>
+    <row r="231" spans="1:32">
+      <c r="A231" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B231" s="3">
+        <v>112</v>
+      </c>
+      <c r="C231" s="3">
+        <v>89</v>
+      </c>
+      <c r="D231" s="3">
+        <v>407</v>
+      </c>
+      <c r="E231" s="3">
+        <v>257</v>
+      </c>
+      <c r="F231" s="3">
+        <v>440</v>
+      </c>
+      <c r="G231" s="3">
+        <v>226</v>
+      </c>
+      <c r="H231" s="3">
+        <v>83</v>
+      </c>
+      <c r="I231" s="3">
+        <v>106</v>
+      </c>
+      <c r="J231" s="3">
+        <v>141</v>
+      </c>
+      <c r="K231" s="3">
+        <v>644</v>
+      </c>
+      <c r="L231" s="3">
+        <v>527</v>
+      </c>
+      <c r="M231" s="3">
+        <v>272</v>
+      </c>
+      <c r="N231" s="3">
+        <v>262</v>
+      </c>
+      <c r="O231" s="3">
+        <v>167</v>
+      </c>
+      <c r="P231" s="3">
+        <v>672</v>
+      </c>
+      <c r="Q231" s="3">
+        <v>316</v>
+      </c>
+      <c r="R231" s="3">
+        <v>218</v>
+      </c>
+      <c r="S231" s="3">
+        <v>174</v>
+      </c>
+      <c r="T231" s="3">
+        <v>717</v>
+      </c>
+      <c r="U231" s="3">
+        <v>206</v>
+      </c>
+      <c r="V231" s="3">
+        <v>40</v>
+      </c>
+      <c r="W231" s="3">
+        <v>118</v>
+      </c>
+      <c r="X231" s="3">
+        <v>305</v>
+      </c>
+      <c r="Y231" s="3">
+        <v>156</v>
+      </c>
+      <c r="Z231" s="3">
+        <v>241</v>
+      </c>
+      <c r="AA231" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB231" s="3">
+        <v>214</v>
+      </c>
+      <c r="AC231" s="3">
+        <v>150</v>
+      </c>
+      <c r="AD231" s="3">
+        <v>87</v>
+      </c>
+      <c r="AE231" s="3">
+        <v>121</v>
+      </c>
+      <c r="AF231" s="3">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187E7840-2D41-4AD5-9EC5-0826390076AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348A3B0B-D0C4-42A6-A834-AB0F103FB50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Consumption" sheetId="1" r:id="rId1"/>
@@ -717,9 +717,9 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/Electricity Consumption by province_2023.xlsx
+++ b/inst/extdata/Electricity Consumption by province_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348A3B0B-D0C4-42A6-A834-AB0F103FB50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68028D0-B0C2-4D95-9A3E-34F5CA8BB014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Beijing_Power Consumption" sheetId="1" r:id="rId1"/>
@@ -284,13 +284,13 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2006-03:2024-11</t>
+    <t>2006-03:2024-12</t>
   </si>
   <si>
-    <t>2009-08:2024-11</t>
+    <t>2009-08:2024-12</t>
   </si>
   <si>
-    <t>2025-01-02</t>
+    <t>2025-01-26</t>
   </si>
 </sst>
 </file>
@@ -711,15 +711,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF231"/>
+  <dimension ref="A1:AF232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -23203,6 +23203,104 @@
         <v>365</v>
       </c>
     </row>
+    <row r="232" spans="1:32">
+      <c r="A232" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B232" s="3">
+        <v>140.40537</v>
+      </c>
+      <c r="C232" s="3">
+        <v>104.308921</v>
+      </c>
+      <c r="D232" s="3">
+        <v>489.66904199999999</v>
+      </c>
+      <c r="E232" s="3">
+        <v>297.74799400000001</v>
+      </c>
+      <c r="F232" s="3">
+        <v>480.407737</v>
+      </c>
+      <c r="G232" s="3">
+        <v>265.67790000000002</v>
+      </c>
+      <c r="H232" s="3">
+        <v>98.097307000000001</v>
+      </c>
+      <c r="I232" s="3">
+        <v>122.438717</v>
+      </c>
+      <c r="J232" s="3">
+        <v>173.15289300000001</v>
+      </c>
+      <c r="K232" s="3">
+        <v>747.92840000000001</v>
+      </c>
+      <c r="L232" s="3">
+        <v>604.85070399999995</v>
+      </c>
+      <c r="M232" s="3">
+        <v>319.85901200000001</v>
+      </c>
+      <c r="N232" s="3">
+        <v>279.16424699999999</v>
+      </c>
+      <c r="O232" s="3">
+        <v>191.474951</v>
+      </c>
+      <c r="P232" s="3">
+        <v>753.71678499999996</v>
+      </c>
+      <c r="Q232" s="3">
+        <v>379.94089400000001</v>
+      </c>
+      <c r="R232" s="3">
+        <v>252.761269</v>
+      </c>
+      <c r="S232" s="3">
+        <v>207.96278799999999</v>
+      </c>
+      <c r="T232" s="3">
+        <v>719.02990299999999</v>
+      </c>
+      <c r="U232" s="3">
+        <v>218.02554599999999</v>
+      </c>
+      <c r="V232" s="3">
+        <v>39.930005000000001</v>
+      </c>
+      <c r="W232" s="3">
+        <v>136.625584</v>
+      </c>
+      <c r="X232" s="3">
+        <v>335.69015200000001</v>
+      </c>
+      <c r="Y232" s="3">
+        <v>189.85468499999999</v>
+      </c>
+      <c r="Z232" s="3">
+        <v>247.330242</v>
+      </c>
+      <c r="AA232" s="3">
+        <v>16.168506000000001</v>
+      </c>
+      <c r="AB232" s="3">
+        <v>246.14983599999999</v>
+      </c>
+      <c r="AC232" s="3">
+        <v>162.324837</v>
+      </c>
+      <c r="AD232" s="3">
+        <v>92.514480000000006</v>
+      </c>
+      <c r="AE232" s="3">
+        <v>127.025794</v>
+      </c>
+      <c r="AF232" s="3">
+        <v>395.77997900000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
